--- a/patient_data/patient_11.xlsx
+++ b/patient_data/patient_11.xlsx
@@ -1235,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2100,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
